--- a/ingles-portuges.xlsx
+++ b/ingles-portuges.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\PC- Notas\InglesPortugues\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="7995"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="833">
   <si>
     <t>Palavras</t>
   </si>
@@ -1765,9 +1770,6 @@
   </si>
   <si>
     <t>You will also learn that the coroner has had to fire one os his men for being associated with Jamison</t>
-  </si>
-  <si>
-    <t>Você também aprenderá que o legista teve que demitir um de seus homens por estar associado a Jamison</t>
   </si>
   <si>
     <t>fire</t>
@@ -2526,7 +2528,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2574,6 +2576,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2581,7 +2586,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2619,9 +2624,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2656,7 +2661,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2691,7 +2696,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2867,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,15 +2898,15 @@
         <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>648</v>
-      </c>
-      <c r="F1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -2910,16 +2915,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E3" s="3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,7 +2938,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,7 +2952,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,12 +2966,12 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B7" t="s">
         <v>556</v>
@@ -2975,7 +2980,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,7 +2994,7 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3003,7 +3008,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,7 +3022,7 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,21 +3033,21 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,13 +3086,13 @@
         <v>525</v>
       </c>
       <c r="C15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,7 +3100,7 @@
         <v>580</v>
       </c>
       <c r="B16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C16">
         <v>102</v>
@@ -3104,15 +3109,15 @@
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C17">
         <v>113</v>
@@ -3121,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,15 +3143,15 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C19">
         <v>154</v>
@@ -3155,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,7 +3199,7 @@
         <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,15 +3210,15 @@
         <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C24">
         <v>105</v>
@@ -3243,10 +3248,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C27">
         <v>149</v>
@@ -3276,24 +3281,24 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,15 +3309,15 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C33">
         <v>92</v>
@@ -3331,10 +3336,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C35">
         <v>101</v>
@@ -3389,39 +3394,39 @@
         <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B44" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3466,10 +3471,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,10 +3487,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B52" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,10 +3543,10 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B59" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,12 +3586,12 @@
         <v>572</v>
       </c>
       <c r="B64" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,10 +3604,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B67" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,10 +3628,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B70" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3674,10 +3679,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B76" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3711,7 +3716,7 @@
         <v>434</v>
       </c>
       <c r="B80" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C80" s="1"/>
     </row>
@@ -3769,10 +3774,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B87" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3785,10 +3790,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3796,15 +3801,15 @@
         <v>571</v>
       </c>
       <c r="B90" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B91" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,10 +3822,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B93" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,7 +3862,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,10 +3883,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B101" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,10 +3923,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B106" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3950,10 +3955,10 @@
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B110" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>573</v>
@@ -4026,10 +4031,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B118" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4045,10 +4050,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B120" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4077,15 +4082,15 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B124" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,10 +4149,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B132" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4176,10 +4181,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B136" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,18 +4213,18 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>582</v>
+      </c>
+      <c r="B140" t="s">
         <v>583</v>
-      </c>
-      <c r="B140" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B141" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4264,10 +4269,10 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B147" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,10 +4293,10 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B150" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,10 +4309,10 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B152" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,10 +4349,10 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B157" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,10 +4405,10 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,10 +4445,10 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B169" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,10 +4477,10 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B173" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,18 +4509,18 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B177" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B178" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4544,10 +4549,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B182" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,18 +4565,18 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B184" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B185" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4589,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B187" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,10 +4616,10 @@
     </row>
     <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B190" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>578</v>
@@ -4630,10 +4635,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B192" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,10 +4694,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B199" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4710,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B201" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,10 +4726,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B203" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4745,10 +4750,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B206" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +4766,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B208" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4793,7 +4798,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B212" t="s">
         <v>375</v>
@@ -4809,10 +4814,10 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B214" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4905,18 +4910,18 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B226" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B227" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C227" t="s">
         <v>174</v>
@@ -4940,10 +4945,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B230" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +4969,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B233" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5031,10 +5036,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B241" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5111,10 +5116,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B251" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -5146,10 +5151,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B255" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5197,18 +5202,18 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B261" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B262" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>491</v>
@@ -5216,10 +5221,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B263" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,23 +5285,23 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B271" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B272" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B273" t="s">
         <v>103</v>
@@ -5320,18 +5325,18 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B276" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B277" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5344,7 +5349,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,10 +5370,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B282" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,7 +5384,7 @@
         <v>222</v>
       </c>
       <c r="C283" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5459,10 +5464,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B293" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,26 +5480,26 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B295" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B296" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B297" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5515,10 +5520,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B300" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5531,7 +5536,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5593,15 +5598,15 @@
         <v>123</v>
       </c>
       <c r="C309" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B310" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -5622,10 +5627,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B313" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,10 +5651,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B316" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C316" t="s">
         <v>174</v>
@@ -5665,10 +5670,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B318" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -5689,10 +5694,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B321" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,17 +5759,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B329" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C329" s="2"/>
-      <c r="D329" s="2" t="s">
-        <v>582</v>
-      </c>
+      <c r="D329" s="2"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -5776,7 +5779,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B331" t="s">
         <v>103</v>
@@ -5784,26 +5787,26 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B332" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B333" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B334" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,18 +5819,18 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B336" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B337" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -5848,7 +5851,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B340" t="s">
         <v>103</v>
@@ -5859,10 +5862,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B341" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -5891,10 +5894,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B345" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5974,10 +5977,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B355" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5988,7 +5991,7 @@
         <v>404</v>
       </c>
       <c r="D356" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5999,7 +6002,7 @@
         <v>566</v>
       </c>
       <c r="C357" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,10 +6050,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B363" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,18 +6074,18 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B367" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,10 +6173,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C378" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,10 +6213,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B383" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -6226,13 +6229,13 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B385" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C385" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,10 +6248,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B387" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -6325,10 +6328,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B397" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -6339,7 +6342,7 @@
         <v>154</v>
       </c>
       <c r="C398" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -6360,18 +6363,18 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B401" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B402" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -6408,10 +6411,10 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B407" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -6472,10 +6475,10 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B415" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,15 +6491,15 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B417" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1048576" spans="2:3" x14ac:dyDescent="0.25">
@@ -6588,7 +6591,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -6730,10 +6733,10 @@
         <v>230</v>
       </c>
       <c r="O4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -6762,16 +6765,16 @@
         <v>217</v>
       </c>
       <c r="I5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M5" t="s">
         <v>68</v>
@@ -6797,7 +6800,7 @@
         <v>572</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -6912,10 +6915,10 @@
         <v>218</v>
       </c>
       <c r="I8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K8" t="s">
         <v>69</v>
@@ -6968,16 +6971,16 @@
         <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O9" t="s">
         <v>470</v>
@@ -7091,7 +7094,7 @@
         <v>580</v>
       </c>
       <c r="B12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C12" t="s">
         <v>456</v>
@@ -7188,10 +7191,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C14" t="s">
         <v>547</v>
@@ -7400,22 +7403,22 @@
         <v>451</v>
       </c>
       <c r="E18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K18" t="s">
         <v>331</v>
@@ -7480,10 +7483,10 @@
         <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -7518,10 +7521,10 @@
         <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M20" t="s">
         <v>49</v>
@@ -7530,10 +7533,10 @@
         <v>67</v>
       </c>
       <c r="O20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -7600,10 +7603,10 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
+        <v>582</v>
+      </c>
+      <c r="F22" t="s">
         <v>583</v>
-      </c>
-      <c r="F22" t="s">
-        <v>584</v>
       </c>
       <c r="G22" t="s">
         <v>284</v>
@@ -7624,10 +7627,10 @@
         <v>306</v>
       </c>
       <c r="M22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O22" t="s">
         <v>34</v>
@@ -7650,10 +7653,10 @@
         <v>373</v>
       </c>
       <c r="E23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G23" t="s">
         <v>242</v>
@@ -7747,7 +7750,7 @@
         <v>571</v>
       </c>
       <c r="D25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E25" t="s">
         <v>332</v>
@@ -7780,10 +7783,10 @@
         <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -7912,10 +7915,10 @@
         <v>387</v>
       </c>
       <c r="I28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K28" t="s">
         <v>170</v>
@@ -7988,10 +7991,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C30" t="s">
         <v>454</v>
@@ -8006,10 +8009,10 @@
         <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I30" t="s">
         <v>489</v>
@@ -8074,10 +8077,10 @@
         <v>123</v>
       </c>
       <c r="M31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O31" t="s">
         <v>129</v>
@@ -8118,10 +8121,10 @@
         <v>446</v>
       </c>
       <c r="K32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M32" t="s">
         <v>416</v>
@@ -8250,10 +8253,10 @@
         <v>314</v>
       </c>
       <c r="G35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I35" t="s">
         <v>290</v>
@@ -8276,10 +8279,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C36" t="s">
         <v>172</v>
@@ -8344,10 +8347,10 @@
         <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K37" t="s">
         <v>420</v>
